--- a/webMain/public/excel/test.xlsx
+++ b/webMain/public/excel/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoanguyen_it\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C932AE39-18B3-485E-86F1-C19104167ED5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E82B99-15AE-4D2E-94F7-D413EDE19B5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t xml:space="preserve">Ho </t>
   </si>
@@ -52,6 +53,54 @@
   </si>
   <si>
     <t>Thai22222222222222222222222222222222222222222222222222222222222</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>!ref</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>!margins</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -398,7 +447,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,7 +457,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -448,6 +497,136 @@
       </c>
       <c r="C4" s="3">
         <v>31048</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484D428A-853E-4F56-9150-4E9CF836D6FE}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>33003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>32050</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>31048</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
